--- a/figures/Article2_Table3/BMP_Table3.xlsx
+++ b/figures/Article2_Table3/BMP_Table3.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="97">
   <si>
     <t>Parameter</t>
   </si>
@@ -334,6 +334,18 @@
   </si>
   <si>
     <t>52.98 ± 0.26</t>
+  </si>
+  <si>
+    <t>29.83 ± 0.00</t>
+  </si>
+  <si>
+    <t>52.7 ± 34.25</t>
+  </si>
+  <si>
+    <t>15.18 ± 1.23</t>
+  </si>
+  <si>
+    <t>40.63 ± 0.88</t>
   </si>
 </sst>
 </file>
@@ -677,7 +689,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1043,17 +1055,17 @@
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="C22">
-        <v>29.8</v>
-      </c>
-      <c r="D22">
-        <v>26.1</v>
-      </c>
-      <c r="E22">
-        <v>40.6</v>
-      </c>
-      <c r="F22">
-        <v>15</v>
+      <c r="C22" t="s">
+        <v>93</v>
+      </c>
+      <c r="D22" t="s">
+        <v>94</v>
+      </c>
+      <c r="E22" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" t="s">
+        <v>95</v>
       </c>
     </row>
   </sheetData>
